--- a/Bang ke NL, nông lâm sản/Nam 2016/THỐNG KÊ/CTK-Bieu gia CN.xlsx
+++ b/Bang ke NL, nông lâm sản/Nam 2016/THỐNG KÊ/CTK-Bieu gia CN.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="45" yWindow="0" windowWidth="3195" windowHeight="1305"/>
@@ -13,12 +13,12 @@
     <definedName name="A7217.30.31">#REF!</definedName>
     <definedName name="YKCN">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>STT</t>
   </si>
@@ -200,22 +200,22 @@
     </r>
   </si>
   <si>
-    <t>Cá bò tẩm</t>
-  </si>
-  <si>
-    <t>Ghẹ khô lạt</t>
-  </si>
-  <si>
     <t>kg</t>
   </si>
   <si>
     <t>Võ Uyên Phương</t>
   </si>
   <si>
-    <t>03062499</t>
-  </si>
-  <si>
-    <t>……., ngày 30 tháng 06 năm 2016</t>
+    <t>Cá cơm khô</t>
+  </si>
+  <si>
+    <t>03055990</t>
+  </si>
+  <si>
+    <t>16041990</t>
+  </si>
+  <si>
+    <t>……., ngày 07 tháng 12 năm 2016</t>
   </si>
   <si>
     <r>
@@ -227,7 +227,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>…30.</t>
+      <t>…07.</t>
     </r>
     <r>
       <rPr>
@@ -246,26 +246,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>…</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>06</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>...</t>
+      <t>…12..</t>
     </r>
     <r>
       <rPr>
@@ -286,6 +267,15 @@
       </rPr>
       <t>16</t>
     </r>
+  </si>
+  <si>
+    <t>Khô cá bò tẩm</t>
+  </si>
+  <si>
+    <t>Khô cá chai tẩm</t>
+  </si>
+  <si>
+    <t>16041989</t>
   </si>
 </sst>
 </file>
@@ -433,7 +423,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -500,114 +490,12 @@
         <color theme="1" tint="0.14996795556505021"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.14996795556505021"/>
-      </left>
-      <right style="thin">
         <color theme="1" tint="0.14996795556505021"/>
       </right>
       <top style="thin">
         <color theme="1" tint="0.14996795556505021"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.14996795556505021"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.14996795556505021"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.14996795556505021"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.14993743705557422"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.14993743705557422"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.14993743705557422"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.14993743705557422"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.14996795556505021"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.14996795556505021"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.14993743705557422"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.14993743705557422"/>
-      </top>
-      <bottom style="hair">
-        <color theme="1" tint="0.14993743705557422"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.14993743705557422"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.14993743705557422"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.14993743705557422"/>
-      </top>
-      <bottom style="hair">
-        <color theme="1" tint="0.14993743705557422"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.14993743705557422"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.14996795556505021"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.14993743705557422"/>
-      </top>
-      <bottom style="hair">
-        <color theme="1" tint="0.14993743705557422"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -657,6 +545,32 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.14993743705557422"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color theme="1" tint="0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="1" tint="0.14996795556505021"/>
       </left>
       <right style="thin">
@@ -666,7 +580,7 @@
         <color theme="1" tint="0.14993743705557422"/>
       </top>
       <bottom style="thin">
-        <color theme="1" tint="0.14996795556505021"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,7 +595,7 @@
         <color theme="1" tint="0.14993743705557422"/>
       </top>
       <bottom style="thin">
-        <color theme="1" tint="0.14996795556505021"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,65 +610,7 @@
         <color theme="1" tint="0.14993743705557422"/>
       </top>
       <bottom style="thin">
-        <color theme="1" tint="0.14996795556505021"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.14993743705557422"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color theme="1" tint="0.14993743705557422"/>
-      </top>
-      <bottom style="hair">
-        <color theme="1" tint="0.14993743705557422"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.14990691854609822"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.14993743705557422"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.14993743705557422"/>
-      </top>
-      <bottom style="hair">
-        <color theme="1" tint="0.14990691854609822"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.14990691854609822"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.14993743705557422"/>
-      </right>
-      <top style="hair">
-        <color theme="1" tint="0.14990691854609822"/>
-      </top>
-      <bottom style="hair">
-        <color theme="1" tint="0.14990691854609822"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.14990691854609822"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.14993743705557422"/>
-      </right>
-      <top style="hair">
-        <color theme="1" tint="0.14990691854609822"/>
-      </top>
-      <bottom style="hair">
-        <color theme="1" tint="0.14993743705557422"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,18 +631,12 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -816,127 +666,112 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -951,7 +786,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -959,9 +794,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1372,27 +1204,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:N12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13" style="5" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="3.85546875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="2.5703125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="2" style="5" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="10.28515625" style="5"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="3.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="2.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="2" style="3" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="10.28515625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1409,13 +1241,13 @@
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
     </row>
     <row r="2" spans="1:22" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="s">
@@ -1429,11 +1261,11 @@
       <c r="G2" s="36"/>
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
     </row>
     <row r="3" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
@@ -1449,795 +1281,795 @@
       <c r="G3" s="37"/>
       <c r="H3" s="37"/>
       <c r="I3" s="37"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
     </row>
     <row r="4" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60" t="s">
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
     </row>
     <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
     </row>
     <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60" t="s">
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
     </row>
     <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60" t="s">
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
     </row>
     <row r="9" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
     </row>
     <row r="10" spans="1:22" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="45" t="s">
+      <c r="H10" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="45" t="s">
+      <c r="I10" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45" t="s">
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
     </row>
     <row r="11" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="40"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
     </row>
     <row r="12" spans="1:22" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="12"/>
-    </row>
-    <row r="13" spans="1:22" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="10"/>
+    </row>
+    <row r="13" spans="1:22" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="4" t="s">
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="48">
+      <c r="I13" s="39">
         <v>1</v>
       </c>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49">
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39">
         <v>2</v>
       </c>
-      <c r="M13" s="49"/>
-      <c r="N13" s="50"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="12"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="10"/>
     </row>
     <row r="14" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
+      <c r="A14" s="12">
         <v>1</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="28">
-        <v>16041990</v>
-      </c>
-      <c r="H14" s="29" t="s">
+      <c r="I14" s="34">
+        <v>155995</v>
+      </c>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="30"/>
+    </row>
+    <row r="15" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="23">
+        <v>2</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="34">
+        <v>189422</v>
+      </c>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="30"/>
+    </row>
+    <row r="16" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>3</v>
+      </c>
+      <c r="B16" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="51">
-        <v>189322</v>
-      </c>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="52"/>
-    </row>
-    <row r="15" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
-        <v>2</v>
-      </c>
-      <c r="B15" s="33" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="28">
-        <v>16041990</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="32">
-        <v>256000</v>
-      </c>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="34"/>
-    </row>
-    <row r="16" spans="1:22" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
+      <c r="I16" s="34">
+        <v>62426</v>
+      </c>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="30"/>
+    </row>
+    <row r="17" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="26"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="52"/>
+    </row>
+    <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+    </row>
+    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+    </row>
+    <row r="20" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="H20" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+    </row>
+    <row r="21" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B21" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="H21" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+    </row>
+    <row r="22" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+    </row>
+    <row r="23" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+    </row>
+    <row r="24" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+    </row>
+    <row r="25" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+    </row>
+    <row r="26" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+    </row>
+    <row r="27" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+    </row>
+    <row r="28" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="32">
-        <v>191500</v>
-      </c>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="34"/>
-    </row>
-    <row r="17" spans="1:14" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="59"/>
-    </row>
-    <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-    </row>
-    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-    </row>
-    <row r="20" spans="1:14" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B20" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="H20" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-    </row>
-    <row r="21" spans="1:14" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B21" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="H21" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-    </row>
-    <row r="22" spans="1:14" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-    </row>
-    <row r="23" spans="1:14" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-    </row>
-    <row r="24" spans="1:14" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-    </row>
-    <row r="25" spans="1:14" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-    </row>
-    <row r="26" spans="1:14" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-    </row>
-    <row r="27" spans="1:14" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-    </row>
-    <row r="28" spans="1:14" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-    </row>
-    <row r="29" spans="1:14" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-    </row>
-    <row r="30" spans="1:14" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
+      <c r="D28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+    </row>
+    <row r="29" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+    </row>
+    <row r="30" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
     </row>
     <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
     </row>
     <row r="32" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
-      <c r="B32" s="26" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-    </row>
-    <row r="33" spans="1:14" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22" t="s">
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+    </row>
+    <row r="33" spans="1:14" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="27"/>
-    </row>
-    <row r="34" spans="1:14" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22" t="s">
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="21"/>
+    </row>
+    <row r="34" spans="1:14" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="27"/>
-    </row>
-    <row r="35" spans="1:14" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22" t="s">
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="21"/>
+    </row>
+    <row r="35" spans="1:14" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="27"/>
-    </row>
-    <row r="36" spans="1:14" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22" t="s">
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="21"/>
+    </row>
+    <row r="36" spans="1:14" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="27"/>
-    </row>
-    <row r="37" spans="1:14" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22" t="s">
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="21"/>
+    </row>
+    <row r="37" spans="1:14" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="27"/>
-    </row>
-    <row r="38" spans="1:14" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-    </row>
-    <row r="39" spans="1:14" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-    </row>
-    <row r="40" spans="1:14" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-    </row>
-    <row r="41" spans="1:14" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-    </row>
-    <row r="42" spans="1:14" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-    </row>
-    <row r="43" spans="1:14" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-    </row>
-    <row r="44" spans="1:14" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-    </row>
-    <row r="45" spans="1:14" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-    </row>
-    <row r="46" spans="1:14" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-    </row>
-    <row r="47" spans="1:14" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="21"/>
+    </row>
+    <row r="38" spans="1:14" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+    </row>
+    <row r="39" spans="1:14" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+    </row>
+    <row r="40" spans="1:14" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+    </row>
+    <row r="41" spans="1:14" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+    </row>
+    <row r="42" spans="1:14" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+    </row>
+    <row r="43" spans="1:14" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+    </row>
+    <row r="44" spans="1:14" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+    </row>
+    <row r="45" spans="1:14" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+    </row>
+    <row r="46" spans="1:14" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+    </row>
+    <row r="47" spans="1:14" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -2251,6 +2083,10 @@
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J7:N7"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="B16:F16"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="H21:N21"/>
     <mergeCell ref="B17:F17"/>
@@ -2260,30 +2096,26 @@
     <mergeCell ref="H20:N20"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="L17:N17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="B10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="I10:K12"/>
     <mergeCell ref="B13:F13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L10:N12"/>
+    <mergeCell ref="J1:N3"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="L14:N14"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:N16"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:I2"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="J1:N3"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="H10:H12"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="I10:K12"/>
-    <mergeCell ref="L10:N12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Bang ke NL, nông lâm sản/Nam 2016/THỐNG KÊ/CTK-Bieu gia CN.xlsx
+++ b/Bang ke NL, nông lâm sản/Nam 2016/THỐNG KÊ/CTK-Bieu gia CN.xlsx
@@ -13,12 +13,12 @@
     <definedName name="A7217.30.31">#REF!</definedName>
     <definedName name="YKCN">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525" calcOnSave="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>STT</t>
   </si>
@@ -212,12 +212,6 @@
     <t>03055990</t>
   </si>
   <si>
-    <t>16041990</t>
-  </si>
-  <si>
-    <t>……., ngày 07 tháng 12 năm 2016</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Ngày </t>
     </r>
@@ -246,7 +240,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>…12..</t>
+      <t>…01..</t>
     </r>
     <r>
       <rPr>
@@ -265,17 +259,11 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>16</t>
+      <t>17</t>
     </r>
   </si>
   <si>
-    <t>Khô cá bò tẩm</t>
-  </si>
-  <si>
-    <t>Khô cá chai tẩm</t>
-  </si>
-  <si>
-    <t>16041989</t>
+    <t>……., ngày 07 tháng 01 năm 2017</t>
   </si>
 </sst>
 </file>
@@ -423,7 +411,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -563,19 +551,6 @@
       <right style="thin">
         <color theme="1" tint="0.14993743705557422"/>
       </right>
-      <top/>
-      <bottom style="hair">
-        <color theme="1" tint="0.14993743705557422"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.14996795556505021"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.14993743705557422"/>
-      </right>
       <top style="hair">
         <color theme="1" tint="0.14993743705557422"/>
       </top>
@@ -631,7 +606,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -699,42 +674,81 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -747,53 +761,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -872,13 +844,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>209590</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -902,7 +874,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3324226" y="6238875"/>
+          <a:off x="3324226" y="4981575"/>
           <a:ext cx="2752764" cy="1628775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1202,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16:K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1228,64 +1200,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="33" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
     </row>
     <row r="2" spans="1:22" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
     </row>
     <row r="3" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
     </row>
     <row r="4" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
@@ -1304,130 +1276,130 @@
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
     </row>
     <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
     </row>
     <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53" t="s">
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
     </row>
     <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53" t="s">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53" t="s">
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
     </row>
     <row r="9" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:22" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="44" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31" t="s">
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
@@ -1437,20 +1409,20 @@
       <c r="V10" s="6"/>
     </row>
     <row r="11" spans="1:22" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="40"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
@@ -1460,20 +1432,20 @@
       <c r="V11" s="6"/>
     </row>
     <row r="12" spans="1:22" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="7"/>
@@ -1483,32 +1455,32 @@
       <c r="V12" s="10"/>
     </row>
     <row r="13" spans="1:22" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="24" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="46">
         <v>1</v>
       </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39">
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46">
         <v>2</v>
       </c>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="7"/>
@@ -1521,161 +1493,133 @@
       <c r="A14" s="12">
         <v>1</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="25" t="s">
-        <v>43</v>
+      <c r="B14" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="24" t="s">
+        <v>37</v>
       </c>
       <c r="H14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="34">
-        <v>155995</v>
-      </c>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="30"/>
-    </row>
-    <row r="15" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23">
-        <v>2</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="34">
-        <v>189422</v>
-      </c>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="30"/>
-    </row>
-    <row r="16" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
-        <v>3</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="34">
-        <v>62426</v>
-      </c>
+      <c r="I14" s="31">
+        <v>64200</v>
+      </c>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="39"/>
+    </row>
+    <row r="15" spans="1:22" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="38"/>
+    </row>
+    <row r="16" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="30"/>
-    </row>
-    <row r="17" spans="1:14" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="52"/>
-    </row>
-    <row r="18" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-    </row>
-    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="49" t="s">
+      <c r="L16" s="14"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+    </row>
+    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+    </row>
+    <row r="18" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="H18" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+    </row>
+    <row r="19" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="H19" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
     </row>
     <row r="20" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B20" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="H20" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
     </row>
     <row r="21" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B21" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="H21" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
     </row>
     <row r="22" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B22" s="17"/>
@@ -1727,7 +1671,9 @@
     </row>
     <row r="26" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="D26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
@@ -1751,9 +1697,7 @@
     </row>
     <row r="28" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B28" s="17"/>
-      <c r="C28" s="17" t="s">
-        <v>35</v>
-      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
@@ -1763,37 +1707,47 @@
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
     </row>
-    <row r="29" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-    </row>
-    <row r="30" spans="1:14" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-    </row>
-    <row r="31" spans="1:14" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
+    <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+    </row>
+    <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="16"/>
+      <c r="B30" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+    </row>
+    <row r="31" spans="1:14" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
@@ -1803,14 +1757,15 @@
       <c r="K31" s="16"/>
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
-    </row>
-    <row r="32" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="N31" s="21"/>
+    </row>
+    <row r="32" spans="1:14" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
-      <c r="B32" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
+      <c r="B32" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
@@ -1820,11 +1775,12 @@
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
+      <c r="N32" s="21"/>
     </row>
     <row r="33" spans="1:14" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -1842,7 +1798,7 @@
     <row r="34" spans="1:14" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
       <c r="B34" s="16" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
@@ -1860,7 +1816,7 @@
     <row r="35" spans="1:14" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
@@ -1876,39 +1832,35 @@
       <c r="N35" s="21"/>
     </row>
     <row r="36" spans="1:14" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
       <c r="N36" s="21"/>
     </row>
     <row r="37" spans="1:14" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
       <c r="N37" s="21"/>
     </row>
     <row r="38" spans="1:14" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
@@ -2039,40 +1991,35 @@
       <c r="M45" s="21"/>
       <c r="N45" s="21"/>
     </row>
-    <row r="46" spans="1:14" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-      <c r="N46" s="21"/>
-    </row>
-    <row r="47" spans="1:14" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-    </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="37">
+    <mergeCell ref="L10:N12"/>
+    <mergeCell ref="J1:N3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="I10:K12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L14:N14"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="J8:N8"/>
@@ -2083,39 +2030,6 @@
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="J7:N7"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="B10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="I10:K12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L10:N12"/>
-    <mergeCell ref="J1:N3"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
